--- a/data/10uM CdCl2 PPR trace_ Additional Analysis.xlsx
+++ b/data/10uM CdCl2 PPR trace_ Additional Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.72.18.38\Data folder\YELee\Maria Reva_Simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reva/Documents/Python/SPSynapse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D125D-3A02-41C0-9F69-941737DA89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5675D9-E10C-AC43-84AF-788E84214616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EF7CBA4-F09D-4C81-ABAC-40A71151C1BF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{1EF7CBA4-F09D-4C81-ABAC-40A71151C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="PPR" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="88">
   <si>
     <t>DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Peak amplitude (pA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Baseline (10min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,24 +318,30 @@
   <si>
     <t>(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peak amplitude</t>
+  </si>
+  <si>
+    <t>During</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -357,7 +359,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -365,7 +367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -374,7 +376,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -382,14 +384,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -397,14 +399,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -412,7 +414,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -421,7 +423,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -429,14 +431,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -445,7 +447,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -590,8 +592,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -974,51 +976,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E7D020-FA95-4019-B60F-74B99CE461AA}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="11.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="13.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="11.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="8"/>
       <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="8"/>
       <c r="K1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="11">
         <v>0.70647499999999996</v>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="F2" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="11">
         <f>B2/$B2*100</f>
@@ -1043,12 +1047,12 @@
         <v>20</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="11">
         <v>0.774698</v>
@@ -1067,12 +1071,12 @@
       </c>
       <c r="I3" s="12"/>
       <c r="K3" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11">
         <v>1.6616070000000001</v>
@@ -1091,9 +1095,9 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11">
         <v>1.016519</v>
@@ -1116,9 +1120,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11">
         <v>0.84720399999999996</v>
@@ -1141,9 +1145,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11">
         <v>0.74904499999999996</v>
@@ -1162,9 +1166,9 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11">
         <v>0.80890200000000001</v>
@@ -1183,9 +1187,9 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11">
         <v>0.88807000000000003</v>
@@ -1204,9 +1208,9 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11">
         <v>1.6882429999999999</v>
@@ -1225,9 +1229,9 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="20">
         <v>1.2899339999999999</v>
@@ -1246,9 +1250,9 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="20">
         <v>1.362349</v>
@@ -1265,9 +1269,9 @@
         <v>126.16642284759632</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="20">
         <v>1.136288</v>
@@ -1284,9 +1288,9 @@
         <v>109.49935227688754</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="20">
         <v>2.1701809999999999</v>
@@ -1303,9 +1307,9 @@
         <v>110.50502239214151</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="20">
         <v>1.55443</v>
@@ -1322,9 +1326,9 @@
         <v>102.46405434789602</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="20">
         <v>1.5898699999999999</v>
@@ -1341,9 +1345,9 @@
         <v>229.06206167799886</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="20">
         <v>1.2104429999999999</v>
@@ -1360,9 +1364,9 @@
         <v>174.54659161976235</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="20">
         <v>0.93669899999999995</v>
@@ -1379,31 +1383,31 @@
         <v>122.78917774012785</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8"/>
       <c r="F20" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="16">
         <v>0.84986799999999996</v>
@@ -1422,9 +1426,9 @@
       </c>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="16">
         <v>1.625132451</v>
@@ -1443,9 +1447,9 @@
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="16">
         <v>0.76850499999999999</v>
@@ -1464,9 +1468,9 @@
       </c>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="16">
         <v>1.668526</v>
@@ -1485,9 +1489,9 @@
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="16">
         <v>1.0251790000000001</v>
@@ -1506,9 +1510,9 @@
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="16">
         <v>1.881982</v>
@@ -1528,9 +1532,9 @@
       <c r="I26" s="12"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="16">
         <v>1.448132</v>
@@ -1549,9 +1553,9 @@
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="16">
         <v>1.613286</v>
@@ -1570,9 +1574,9 @@
       </c>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="16">
         <v>1.7891060000000001</v>
@@ -1591,9 +1595,9 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="16">
         <v>1.152374</v>
@@ -1612,9 +1616,9 @@
       </c>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="21">
         <v>0.76339699999999999</v>
@@ -1631,31 +1635,31 @@
         <v>127.48399587632646</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="8"/>
       <c r="F34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="16">
         <v>1.7617670000000001</v>
@@ -1674,9 +1678,9 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="16">
         <v>1.2832650000000001</v>
@@ -1695,9 +1699,9 @@
       </c>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="16">
         <v>2.1101100000000002</v>
@@ -1716,9 +1720,9 @@
       </c>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="16">
         <v>1.6357409999999999</v>
@@ -1737,9 +1741,9 @@
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="16">
         <v>1.3909879999999999</v>
@@ -1758,9 +1762,9 @@
       </c>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="16">
         <v>1.9288339999999999</v>
@@ -1779,9 +1783,9 @@
       </c>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="16">
         <v>2.3334920000000001</v>
@@ -1800,9 +1804,9 @@
       </c>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="16">
         <v>1.598598</v>
@@ -1821,9 +1825,9 @@
       </c>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="16">
         <v>2.300894</v>
@@ -1842,9 +1846,9 @@
       </c>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="16">
         <v>1.609049</v>
@@ -1863,9 +1867,9 @@
       </c>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="21">
         <v>2.8190430000000002</v>
@@ -1882,9 +1886,9 @@
         <v>129.15109844014438</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="21">
         <v>2.1368179999999999</v>
@@ -1901,9 +1905,9 @@
         <v>113.99599778736422</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="21">
         <v>2.359483</v>
@@ -1920,9 +1924,9 @@
         <v>89.670237081597961</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="21">
         <v>1.378846</v>
@@ -1939,31 +1943,31 @@
         <v>112.05964988113249</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="8"/>
       <c r="F50" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="11">
         <v>1.8526400000000001</v>
@@ -1982,9 +1986,9 @@
       </c>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="11">
         <v>1.74187</v>
@@ -2003,9 +2007,9 @@
       </c>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="11">
         <v>1.3378639999999999</v>
@@ -2024,9 +2028,9 @@
       </c>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="11">
         <v>1.2276659999999999</v>
@@ -2045,9 +2049,9 @@
       </c>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="11">
         <v>2.4124910000000002</v>
@@ -2066,9 +2070,9 @@
       </c>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="11">
         <v>1.853337</v>
@@ -2087,9 +2091,9 @@
       </c>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="11">
         <v>2.079456</v>
@@ -2108,9 +2112,9 @@
       </c>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="11">
         <v>1.746162</v>
@@ -2129,9 +2133,9 @@
       </c>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="11">
         <v>1.462836</v>
@@ -2150,9 +2154,9 @@
       </c>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="11">
         <v>1.6316949999999999</v>
@@ -2171,9 +2175,9 @@
       </c>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="20">
         <v>0.85892299999999999</v>
@@ -2201,17 +2205,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4B6EEB-7EB0-4FC2-8265-950AAFCA782C}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1">
+    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -2249,9 +2255,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2264,12 +2270,12 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1.9113919362507921</v>
@@ -2279,9 +2285,9 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2294,12 +2300,12 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>0.76865953643968921</v>
@@ -2309,9 +2315,9 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2350,9 +2356,9 @@
         <v>-30.335446023940989</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>2.0220929999999999</v>
@@ -2388,9 +2394,9 @@
         <v>-28.414402707417757</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2403,12 +2409,12 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>1.2508501491595425</v>
@@ -2418,9 +2424,9 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -2433,12 +2439,12 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>0.90928645419249832</v>
@@ -2448,9 +2454,9 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -2463,12 +2469,12 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>1.0666463954936538</v>
@@ -2478,9 +2484,9 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2493,12 +2499,12 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1.0168488231272146</v>
@@ -2508,9 +2514,9 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2549,9 +2555,9 @@
         <v>-8.3602357268333307</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1.1028789999999999</v>
@@ -2587,9 +2593,9 @@
         <v>-5.9522187829017588</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2628,9 +2634,9 @@
         <v>-37.189481152428471</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3">
         <v>1.8309929678323786</v>
@@ -2666,9 +2672,9 @@
         <v>-25.609434788043639</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2707,9 +2713,9 @@
         <v>-34.786559377397758</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1.3666619200998156</v>
@@ -2745,9 +2751,9 @@
         <v>-17.615294237931536</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2786,9 +2792,9 @@
         <v>-26.929231452941849</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>1.7188265155706699</v>
@@ -2824,9 +2830,9 @@
         <v>-14.256116324457599</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -2839,12 +2845,12 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>1.2442282025583686</v>
@@ -2854,9 +2860,9 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -2895,9 +2901,9 @@
         <v>-23.852231891531659</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1">
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>2.3981585908473706</v>
@@ -2933,9 +2939,9 @@
         <v>-15.906453710335922</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -2974,9 +2980,9 @@
         <v>-28.114511394500688</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>1.5927322239857109</v>
@@ -3012,9 +3018,9 @@
         <v>-14.453581396738663</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -3053,9 +3059,9 @@
         <v>-10.070415188868806</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>3.6417886730211806</v>
@@ -3091,9 +3097,9 @@
         <v>-7.7540018081664819</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -3132,9 +3138,9 @@
         <v>-44.430400419235198</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>2.112787</v>
@@ -3170,9 +3176,9 @@
         <v>-15.904463974634771</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -3184,12 +3190,12 @@
         <v>113.96605148315355</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>1.1501653618339751</v>
@@ -3198,19 +3204,19 @@
         <v>40.629065767923926</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F37" s="2"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F40" s="2"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F43" s="2"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F46" s="2"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="2"/>
     </row>
   </sheetData>
@@ -3223,14 +3229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B207FE91-F08A-4148-8142-F039956D5E26}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1">
+    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -3268,9 +3276,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -3282,12 +3290,12 @@
         <v>693.23265991210906</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1.0094741126159488</v>
@@ -3296,9 +3304,9 @@
         <v>343.14164733886622</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -3337,9 +3345,9 @@
         <v>-18.739599980806002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>1.6007048825549801</v>
@@ -3375,9 +3383,9 @@
         <v>-12.66818377604849</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -3389,12 +3397,12 @@
         <v>504.97634429931594</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>0.77774937976541814</v>
@@ -3403,9 +3411,9 @@
         <v>162.47285995483375</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -3444,9 +3452,9 @@
         <v>-8.2959645135062008</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>1.1157203164512361</v>
@@ -3482,9 +3490,9 @@
         <v>-3.8436475821903722</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -3523,9 +3531,9 @@
         <v>-1.75377440452575</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>0.97011990746804511</v>
@@ -3561,9 +3569,9 @@
         <v>-1.0481738865375494</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -3602,9 +3610,9 @@
         <v>-29.531874012947043</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>2.0154995465554966</v>
@@ -3640,9 +3648,9 @@
         <v>-10.906168029858481</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -3681,9 +3689,9 @@
         <v>-8.521045684814446</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1.2518583245405044</v>
@@ -3719,9 +3727,9 @@
         <v>-3.6874464828035074</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -3760,9 +3768,9 @@
         <v>-6.2677134315172802</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1.8035659381768701</v>
@@ -3798,9 +3806,9 @@
         <v>-5.2578280615806499</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -3839,9 +3847,9 @@
         <v>-26.612173697527666</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>1.8810971645824743</v>
@@ -3877,9 +3885,9 @@
         <v>-11.398972861907023</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -3918,9 +3926,9 @@
         <v>-17.570810699462839</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1.3824580183820683</v>
@@ -3956,9 +3964,9 @@
         <v>-9.070554712723025</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -3970,12 +3978,12 @@
         <v>540.30880584716783</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>0.97320926350431303</v>
@@ -3984,32 +3992,32 @@
         <v>254.03756726582819</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
     </row>
   </sheetData>
@@ -4022,14 +4030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F431D2A-1A3A-4C0B-81E2-DA6C53F4A52D}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1">
+    <row r="1" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>4</v>
@@ -4067,9 +4077,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -4108,9 +4118,9 @@
         <v>-8.2490581274032486</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>2.0547507855903282</v>
@@ -4146,9 +4156,9 @@
         <v>-6.637349277734744</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -4187,9 +4197,9 @@
         <v>-60.340100288391071</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>1.2957957969873528</v>
@@ -4225,9 +4235,9 @@
         <v>-34.321853319803814</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -4266,9 +4276,9 @@
         <v>-7.2069000403086108</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>1.4940576513566797</v>
@@ -4304,9 +4314,9 @@
         <v>-7.6179668784141317</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4345,9 +4355,9 @@
         <v>-17.90042882216601</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>2.1676476911836149</v>
@@ -4383,9 +4393,9 @@
         <v>-5.6839393027897405</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -4424,9 +4434,9 @@
         <v>-29.628832117716446</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>1.2535665763912693</v>
@@ -4462,9 +4472,9 @@
         <v>-20.619678868187766</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -4503,10 +4513,10 @@
         <v>-20.563759088516189</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>1.9189021593172959</v>
@@ -4542,9 +4552,9 @@
         <v>-16.716637664371035</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -4583,9 +4593,9 @@
         <v>-9.3874203738044155</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>2.0283910220480115</v>
@@ -4621,9 +4631,9 @@
         <v>-6.4282983427955882</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -4662,9 +4672,9 @@
         <v>-9.7579964399337555</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1.6695905655333056</v>
@@ -4700,9 +4710,9 @@
         <v>-3.9800677161950295</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -4741,9 +4751,9 @@
         <v>-26.796399328443691</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>2.7251342989758265</v>
@@ -4779,9 +4789,9 @@
         <v>-10.852155208587623</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -4802,7 +4812,7 @@
         <v>8.8533969163894515</v>
       </c>
       <c r="H20">
-        <v>503.33389282226563</v>
+        <v>503.33389282226562</v>
       </c>
       <c r="I20">
         <v>508.08675842285118</v>
@@ -4820,9 +4830,9 @@
         <v>-19.281974077224692</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1.5144114397729938</v>
@@ -4858,9 +4868,9 @@
         <v>-10.431604266166664</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -4899,9 +4909,9 @@
         <v>-13.025244736671411</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>3.6408250904537267</v>
@@ -4937,9 +4947,9 @@
         <v>-9.6640852689742793</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -4978,9 +4988,9 @@
         <v>-11.42195098740711</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>2.4358867427516491</v>
@@ -5016,9 +5026,9 @@
         <v>-6.8705635612661089</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -5058,9 +5068,9 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>2.115753785864678</v>
@@ -5096,9 +5106,9 @@
         <v>-14.578099727630581</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -5137,9 +5147,9 @@
         <v>-34.03339678049084</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>1.5451299305573252</v>
@@ -5175,13 +5185,13 @@
         <v>-23.747775197029071</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
@@ -5192,871 +5202,939 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E90AC-4AEB-4049-9047-DCFED66E57B5}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="25" customFormat="1">
+    <row r="1" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1.8526399291946773</v>
+      </c>
+      <c r="D2">
+        <v>508.96966552734301</v>
+      </c>
+      <c r="E2">
+        <v>510.57801208496051</v>
+      </c>
+      <c r="F2">
+        <v>12255.660205078126</v>
+      </c>
+      <c r="G2">
+        <v>20.976205062866164</v>
+      </c>
+      <c r="H2">
+        <v>504.87158508300718</v>
+      </c>
+      <c r="I2">
+        <v>521.06226806640586</v>
+      </c>
+      <c r="J2">
+        <v>4.1543619751930194</v>
+      </c>
+      <c r="K2">
+        <v>104.46618385314903</v>
+      </c>
+      <c r="L2">
+        <v>35.067863464355398</v>
+      </c>
+      <c r="M2">
+        <v>-11.64284610748285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>1.7230981960446925</v>
+      </c>
+      <c r="D3">
+        <v>213.24217122395777</v>
+      </c>
+      <c r="E3">
+        <v>511.97757975260379</v>
+      </c>
+      <c r="F3">
+        <v>4227.9939717610678</v>
+      </c>
+      <c r="G3">
+        <v>15.647181313613324</v>
+      </c>
+      <c r="H3">
+        <v>507.14816487630173</v>
+      </c>
+      <c r="I3">
+        <v>525.417384847005</v>
+      </c>
+      <c r="J3">
+        <v>4.7832845727602571</v>
+      </c>
+      <c r="K3">
+        <v>46.786718920866591</v>
+      </c>
+      <c r="L3">
+        <v>26.882109982626741</v>
+      </c>
+      <c r="M3">
+        <v>-5.8469694129058221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
-        <v>1.8526399291946773</v>
-      </c>
-      <c r="C2">
-        <v>508.96966552734301</v>
-      </c>
-      <c r="D2">
-        <v>510.57801208496051</v>
-      </c>
-      <c r="E2">
-        <v>12255.660205078126</v>
-      </c>
-      <c r="F2">
-        <v>20.976205062866164</v>
-      </c>
-      <c r="G2">
-        <v>504.87158508300718</v>
-      </c>
-      <c r="H2">
-        <v>521.06226806640586</v>
-      </c>
-      <c r="I2">
-        <v>4.1543619751930194</v>
-      </c>
-      <c r="J2">
-        <v>104.46618385314903</v>
-      </c>
-      <c r="K2">
-        <v>35.067863464355398</v>
-      </c>
-      <c r="L2">
-        <v>-11.64284610748285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
-        <v>1.7230981960446925</v>
-      </c>
-      <c r="C3">
-        <v>213.24217122395777</v>
-      </c>
-      <c r="D3">
-        <v>511.97757975260379</v>
-      </c>
-      <c r="E3">
-        <v>4227.9939717610678</v>
-      </c>
-      <c r="F3">
-        <v>15.647181313613324</v>
-      </c>
-      <c r="G3">
-        <v>507.14816487630173</v>
-      </c>
-      <c r="H3">
-        <v>525.417384847005</v>
-      </c>
-      <c r="I3">
-        <v>4.7832845727602571</v>
-      </c>
-      <c r="J3">
-        <v>46.786718920866591</v>
-      </c>
-      <c r="K3">
-        <v>26.882109982626741</v>
-      </c>
-      <c r="L3">
-        <v>-5.8469694129058221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="22" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1.7418700956421318</v>
+      </c>
+      <c r="D4">
+        <v>770.2696884155248</v>
+      </c>
+      <c r="E4">
+        <v>504.58701019287093</v>
+      </c>
+      <c r="F4">
+        <v>9063.8343872070309</v>
+      </c>
+      <c r="G4">
+        <v>8.2853747010230983</v>
+      </c>
+      <c r="H4">
+        <v>503.0842727661132</v>
+      </c>
+      <c r="I4">
+        <v>506.99891261050539</v>
+      </c>
+      <c r="J4">
+        <v>1.1759884983301141</v>
+      </c>
+      <c r="K4">
+        <v>600.68293762206963</v>
+      </c>
+      <c r="L4">
+        <v>22.810251306084986</v>
+      </c>
+      <c r="M4">
+        <v>-29.921098540810902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1.5460971889243376</v>
+      </c>
+      <c r="D5">
+        <v>375.52350819905536</v>
+      </c>
+      <c r="E5">
+        <v>505.7569234212238</v>
+      </c>
+      <c r="F5">
+        <v>4387.762259928385</v>
+      </c>
+      <c r="G5">
+        <v>9.0555538177490114</v>
+      </c>
+      <c r="H5">
+        <v>503.69335621800911</v>
+      </c>
+      <c r="I5">
+        <v>512.10738525390593</v>
+      </c>
+      <c r="J5">
+        <v>2.0651333908239944</v>
+      </c>
+      <c r="K5">
+        <v>218.58702483177149</v>
+      </c>
+      <c r="L5">
+        <v>20.443725916055481</v>
+      </c>
+      <c r="M5">
+        <v>-16.224544378427325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B4">
-        <v>1.7418700956421318</v>
-      </c>
-      <c r="C4">
-        <v>770.2696884155248</v>
-      </c>
-      <c r="D4">
-        <v>504.58701019287093</v>
-      </c>
-      <c r="E4">
-        <v>9063.8343872070309</v>
-      </c>
-      <c r="F4">
-        <v>8.2853747010230983</v>
-      </c>
-      <c r="G4">
-        <v>503.0842727661132</v>
-      </c>
-      <c r="H4">
-        <v>506.99891261050539</v>
-      </c>
-      <c r="I4">
-        <v>1.1759884983301141</v>
-      </c>
-      <c r="J4">
-        <v>600.68293762206963</v>
-      </c>
-      <c r="K4">
-        <v>22.810251306084986</v>
-      </c>
-      <c r="L4">
-        <v>-29.921098540810902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
-        <v>1.5460971889243376</v>
-      </c>
-      <c r="C5">
-        <v>375.52350819905536</v>
-      </c>
-      <c r="D5">
-        <v>505.7569234212238</v>
-      </c>
-      <c r="E5">
-        <v>4387.762259928385</v>
-      </c>
-      <c r="F5">
-        <v>9.0555538177490114</v>
-      </c>
-      <c r="G5">
-        <v>503.69335621800911</v>
-      </c>
-      <c r="H5">
-        <v>512.10738525390593</v>
-      </c>
-      <c r="I5">
-        <v>2.0651333908239944</v>
-      </c>
-      <c r="J5">
-        <v>218.58702483177149</v>
-      </c>
-      <c r="K5">
-        <v>20.443725916055481</v>
-      </c>
-      <c r="L5">
-        <v>-16.224544378427325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="22" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1.3378638909047236</v>
+      </c>
+      <c r="D6">
+        <v>2324.1127136230448</v>
+      </c>
+      <c r="E6">
+        <v>506.87357482910159</v>
+      </c>
+      <c r="F6">
+        <v>30268.799902343751</v>
+      </c>
+      <c r="G6">
+        <v>10.051605176925632</v>
+      </c>
+      <c r="H6">
+        <v>504.76175231933519</v>
+      </c>
+      <c r="I6">
+        <v>509.6494094848631</v>
+      </c>
+      <c r="J6">
+        <v>1.8145129978656727</v>
+      </c>
+      <c r="K6">
+        <v>1093.8607391357398</v>
+      </c>
+      <c r="L6">
+        <v>23.659414482116652</v>
+      </c>
+      <c r="M6">
+        <v>-73.766391754150362</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>1.3532614328371475</v>
+      </c>
+      <c r="D7">
+        <v>1441.050758870439</v>
+      </c>
+      <c r="E7">
+        <v>507.26465555826809</v>
+      </c>
+      <c r="F7">
+        <v>15752.538102213543</v>
+      </c>
+      <c r="G7">
+        <v>8.0916823069254544</v>
+      </c>
+      <c r="H7">
+        <v>505.33089396158806</v>
+      </c>
+      <c r="I7">
+        <v>509.03533325195309</v>
+      </c>
+      <c r="J7">
+        <v>1.8401007850964821</v>
+      </c>
+      <c r="K7">
+        <v>695.00643310546843</v>
+      </c>
+      <c r="L7">
+        <v>18.961257902781107</v>
+      </c>
+      <c r="M7">
+        <v>-55.935389137268047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B6">
-        <v>1.3378638909047236</v>
-      </c>
-      <c r="C6">
-        <v>2324.1127136230448</v>
-      </c>
-      <c r="D6">
-        <v>506.87357482910159</v>
-      </c>
-      <c r="E6">
-        <v>30268.799902343751</v>
-      </c>
-      <c r="F6">
-        <v>10.051605176925632</v>
-      </c>
-      <c r="G6">
-        <v>504.76175231933519</v>
-      </c>
-      <c r="H6">
-        <v>509.6494094848631</v>
-      </c>
-      <c r="I6">
-        <v>1.8145129978656727</v>
-      </c>
-      <c r="J6">
-        <v>1093.8607391357398</v>
-      </c>
-      <c r="K6">
-        <v>23.659414482116652</v>
-      </c>
-      <c r="L6">
-        <v>-73.766391754150362</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
-        <v>1.3532614328371475</v>
-      </c>
-      <c r="C7">
-        <v>1441.050758870439</v>
-      </c>
-      <c r="D7">
-        <v>507.26465555826809</v>
-      </c>
-      <c r="E7">
-        <v>15752.538102213543</v>
-      </c>
-      <c r="F7">
-        <v>8.0916823069254544</v>
-      </c>
-      <c r="G7">
-        <v>505.33089396158806</v>
-      </c>
-      <c r="H7">
-        <v>509.03533325195309</v>
-      </c>
-      <c r="I7">
-        <v>1.8401007850964821</v>
-      </c>
-      <c r="J7">
-        <v>695.00643310546843</v>
-      </c>
-      <c r="K7">
-        <v>18.961257902781107</v>
-      </c>
-      <c r="L7">
-        <v>-55.935389137268047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="22" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1.2276662402466101</v>
+      </c>
+      <c r="D8">
+        <v>1132.7115505052593</v>
+      </c>
+      <c r="E8">
+        <v>507.18593298870576</v>
+      </c>
+      <c r="F8">
+        <v>11048.279296875</v>
+      </c>
+      <c r="G8">
+        <v>7.1516970136891205</v>
+      </c>
+      <c r="H8">
+        <v>505.45592598293081</v>
+      </c>
+      <c r="I8">
+        <v>509.2198366911515</v>
+      </c>
+      <c r="J8">
+        <v>1.9442350501599486</v>
+      </c>
+      <c r="K8">
+        <v>518.92196655273415</v>
+      </c>
+      <c r="L8">
+        <v>17.697739227958294</v>
+      </c>
+      <c r="M8">
+        <v>-45.450078964233356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>1.4092211137772344</v>
+      </c>
+      <c r="D9">
+        <v>466.4163757324211</v>
+      </c>
+      <c r="E9">
+        <v>507.89038696289037</v>
+      </c>
+      <c r="F9">
+        <v>4819.2415791829426</v>
+      </c>
+      <c r="G9">
+        <v>7.6388564109802219</v>
+      </c>
+      <c r="H9">
+        <v>505.82682189941363</v>
+      </c>
+      <c r="I9">
+        <v>513.77487996419256</v>
+      </c>
+      <c r="J9">
+        <v>1.9125536561012226</v>
+      </c>
+      <c r="K9">
+        <v>231.45092544555627</v>
+      </c>
+      <c r="L9">
+        <v>17.701486423097752</v>
+      </c>
+      <c r="M9">
+        <v>-18.74881844684991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B8">
-        <v>1.2276662402466101</v>
-      </c>
-      <c r="C8">
-        <v>1132.7115505052593</v>
-      </c>
-      <c r="D8">
-        <v>507.18593298870576</v>
-      </c>
-      <c r="E8">
-        <v>11048.279296875</v>
-      </c>
-      <c r="F8">
-        <v>7.1516970136891205</v>
-      </c>
-      <c r="G8">
-        <v>505.45592598293081</v>
-      </c>
-      <c r="H8">
-        <v>509.2198366911515</v>
-      </c>
-      <c r="I8">
-        <v>1.9442350501599486</v>
-      </c>
-      <c r="J8">
-        <v>518.92196655273415</v>
-      </c>
-      <c r="K8">
-        <v>17.697739227958294</v>
-      </c>
-      <c r="L8">
-        <v>-45.450078964233356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>1.4092211137772344</v>
-      </c>
-      <c r="C9">
-        <v>466.4163757324211</v>
-      </c>
-      <c r="D9">
-        <v>507.89038696289037</v>
-      </c>
-      <c r="E9">
-        <v>4819.2415791829426</v>
-      </c>
-      <c r="F9">
-        <v>7.6388564109802219</v>
-      </c>
-      <c r="G9">
-        <v>505.82682189941363</v>
-      </c>
-      <c r="H9">
-        <v>513.77487996419256</v>
-      </c>
-      <c r="I9">
-        <v>1.9125536561012226</v>
-      </c>
-      <c r="J9">
-        <v>231.45092544555627</v>
-      </c>
-      <c r="K9">
-        <v>17.701486423097752</v>
-      </c>
-      <c r="L9">
-        <v>-18.74881844684991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="23" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2.4124907259075536</v>
+      </c>
+      <c r="D10">
+        <v>215.76740322113</v>
+      </c>
+      <c r="E10">
+        <v>507.03833007812483</v>
+      </c>
+      <c r="F10">
+        <v>2039.1786163330057</v>
+      </c>
+      <c r="G10">
+        <v>7.3666954517364402</v>
+      </c>
+      <c r="H10">
+        <v>505.42824745178154</v>
+      </c>
+      <c r="I10">
+        <v>512.80467224121071</v>
+      </c>
+      <c r="J10">
+        <v>1.903182926774021</v>
+      </c>
+      <c r="K10">
+        <v>106.09234485514435</v>
+      </c>
+      <c r="L10">
+        <v>15.273806750774344</v>
+      </c>
+      <c r="M10">
+        <v>-10.702042624354327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>3.1994622412130913</v>
+      </c>
+      <c r="D11">
+        <v>95.502213478088109</v>
+      </c>
+      <c r="E11">
+        <v>506.57028388977022</v>
+      </c>
+      <c r="F11">
+        <v>788.00741696357625</v>
+      </c>
+      <c r="G11">
+        <v>5.9781570285558647</v>
+      </c>
+      <c r="H11">
+        <v>506.21956481933529</v>
+      </c>
+      <c r="I11">
+        <v>514.30866050720169</v>
+      </c>
+      <c r="J11">
+        <v>1.2510325722396352</v>
+      </c>
+      <c r="K11">
+        <v>110.57129305601096</v>
+      </c>
+      <c r="L11">
+        <v>14.579272764069655</v>
+      </c>
+      <c r="M11">
+        <v>-4.6834203388009721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B10">
-        <v>2.4124907259075536</v>
-      </c>
-      <c r="C10">
-        <v>215.76740322113</v>
-      </c>
-      <c r="D10">
-        <v>507.03833007812483</v>
-      </c>
-      <c r="E10">
-        <v>2039.1786163330057</v>
-      </c>
-      <c r="F10">
-        <v>7.3666954517364402</v>
-      </c>
-      <c r="G10">
-        <v>505.42824745178154</v>
-      </c>
-      <c r="H10">
-        <v>512.80467224121071</v>
-      </c>
-      <c r="I10">
-        <v>1.903182926774021</v>
-      </c>
-      <c r="J10">
-        <v>106.09234485514435</v>
-      </c>
-      <c r="K10">
-        <v>15.273806750774344</v>
-      </c>
-      <c r="L10">
-        <v>-10.702042624354327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
-        <v>3.1994622412130913</v>
-      </c>
-      <c r="C11">
-        <v>95.502213478088109</v>
-      </c>
-      <c r="D11">
-        <v>506.57028388977022</v>
-      </c>
-      <c r="E11">
-        <v>788.00741696357625</v>
-      </c>
-      <c r="F11">
-        <v>5.9781570285558647</v>
-      </c>
-      <c r="G11">
-        <v>506.21956481933529</v>
-      </c>
-      <c r="H11">
-        <v>514.30866050720169</v>
-      </c>
-      <c r="I11">
-        <v>1.2510325722396352</v>
-      </c>
-      <c r="J11">
-        <v>110.57129305601096</v>
-      </c>
-      <c r="K11">
-        <v>14.579272764069655</v>
-      </c>
-      <c r="L11">
-        <v>-4.6834203388009721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="22" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1.8533371058049504</v>
+      </c>
+      <c r="D12">
+        <v>529.68541030883603</v>
+      </c>
+      <c r="E12">
+        <v>506.6738784790038</v>
+      </c>
+      <c r="F12">
+        <v>6283.963946533202</v>
+      </c>
+      <c r="G12">
+        <v>9.2033053699292555</v>
+      </c>
+      <c r="H12">
+        <v>505.16114807128861</v>
+      </c>
+      <c r="I12">
+        <v>512.32039947509736</v>
+      </c>
+      <c r="J12">
+        <v>1.4562135487794852</v>
+      </c>
+      <c r="K12">
+        <v>328.17402143478341</v>
+      </c>
+      <c r="L12">
+        <v>19.047135035196916</v>
+      </c>
+      <c r="M12">
+        <v>-21.481858465406578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>1.4824963463402228</v>
+      </c>
+      <c r="D13">
+        <v>318.35716520036891</v>
+      </c>
+      <c r="E13">
+        <v>507.56611088344016</v>
+      </c>
+      <c r="F13">
+        <v>3788.5282745361328</v>
+      </c>
+      <c r="G13">
+        <v>9.3684370347431578</v>
+      </c>
+      <c r="H13">
+        <v>505.55841173444429</v>
+      </c>
+      <c r="I13">
+        <v>512.79397147042391</v>
+      </c>
+      <c r="J13">
+        <v>1.8146211185625578</v>
+      </c>
+      <c r="K13">
+        <v>152.90616989135702</v>
+      </c>
+      <c r="L13">
+        <v>19.838273721582691</v>
+      </c>
+      <c r="M13">
+        <v>-9.7008828415590003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B12">
-        <v>1.8533371058049504</v>
-      </c>
-      <c r="C12">
-        <v>529.68541030883603</v>
-      </c>
-      <c r="D12">
-        <v>506.6738784790038</v>
-      </c>
-      <c r="E12">
-        <v>6283.963946533202</v>
-      </c>
-      <c r="F12">
-        <v>9.2033053699292555</v>
-      </c>
-      <c r="G12">
-        <v>505.16114807128861</v>
-      </c>
-      <c r="H12">
-        <v>512.32039947509736</v>
-      </c>
-      <c r="I12">
-        <v>1.4562135487794852</v>
-      </c>
-      <c r="J12">
-        <v>328.17402143478341</v>
-      </c>
-      <c r="K12">
-        <v>19.047135035196916</v>
-      </c>
-      <c r="L12">
-        <v>-21.481858465406578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
-        <v>1.4824963463402228</v>
-      </c>
-      <c r="C13">
-        <v>318.35716520036891</v>
-      </c>
-      <c r="D13">
-        <v>507.56611088344016</v>
-      </c>
-      <c r="E13">
-        <v>3788.5282745361328</v>
-      </c>
-      <c r="F13">
-        <v>9.3684370347431578</v>
-      </c>
-      <c r="G13">
-        <v>505.55841173444429</v>
-      </c>
-      <c r="H13">
-        <v>512.79397147042391</v>
-      </c>
-      <c r="I13">
-        <v>1.8146211185625578</v>
-      </c>
-      <c r="J13">
-        <v>152.90616989135702</v>
-      </c>
-      <c r="K13">
-        <v>19.838273721582691</v>
-      </c>
-      <c r="L13">
-        <v>-9.7008828415590003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="22" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2.0794556841934511</v>
+      </c>
+      <c r="D14">
+        <v>609.10943412780682</v>
+      </c>
+      <c r="E14">
+        <v>506.47917175292957</v>
+      </c>
+      <c r="F14">
+        <v>6875.3318038940433</v>
+      </c>
+      <c r="G14">
+        <v>7.5944783687591508</v>
+      </c>
+      <c r="H14">
+        <v>504.65191802978472</v>
+      </c>
+      <c r="I14">
+        <v>511.2070709228513</v>
+      </c>
+      <c r="J14">
+        <v>1.6213926106691325</v>
+      </c>
+      <c r="K14">
+        <v>351.3275409698482</v>
+      </c>
+      <c r="L14">
+        <v>19.466115098250508</v>
+      </c>
+      <c r="M14">
+        <v>-22.086320199464449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>1.592964470922505</v>
+      </c>
+      <c r="D15">
+        <v>594.8338449412372</v>
+      </c>
+      <c r="E15">
+        <v>507.49626317517499</v>
+      </c>
+      <c r="F15">
+        <v>6498.0140917547815</v>
+      </c>
+      <c r="G15">
+        <v>8.0451452321019623</v>
+      </c>
+      <c r="H15">
+        <v>505.48721103010462</v>
+      </c>
+      <c r="I15">
+        <v>510.50036936792822</v>
+      </c>
+      <c r="J15">
+        <v>1.9047303364194632</v>
+      </c>
+      <c r="K15">
+        <v>286.79761286439515</v>
+      </c>
+      <c r="L15">
+        <v>18.741033110125262</v>
+      </c>
+      <c r="M15">
+        <v>-22.741703197873829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B14">
-        <v>2.0794556841934511</v>
-      </c>
-      <c r="C14">
-        <v>609.10943412780682</v>
-      </c>
-      <c r="D14">
-        <v>506.47917175292957</v>
-      </c>
-      <c r="E14">
-        <v>6875.3318038940433</v>
-      </c>
-      <c r="F14">
-        <v>7.5944783687591508</v>
-      </c>
-      <c r="G14">
-        <v>504.65191802978472</v>
-      </c>
-      <c r="H14">
-        <v>511.2070709228513</v>
-      </c>
-      <c r="I14">
-        <v>1.6213926106691325</v>
-      </c>
-      <c r="J14">
-        <v>351.3275409698482</v>
-      </c>
-      <c r="K14">
-        <v>19.466115098250508</v>
-      </c>
-      <c r="L14">
-        <v>-22.086320199464449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
-        <v>1.592964470922505</v>
-      </c>
-      <c r="C15">
-        <v>594.8338449412372</v>
-      </c>
-      <c r="D15">
-        <v>507.49626317517499</v>
-      </c>
-      <c r="E15">
-        <v>6498.0140917547815</v>
-      </c>
-      <c r="F15">
-        <v>8.0451452321019623</v>
-      </c>
-      <c r="G15">
-        <v>505.48721103010462</v>
-      </c>
-      <c r="H15">
-        <v>510.50036936792822</v>
-      </c>
-      <c r="I15">
-        <v>1.9047303364194632</v>
-      </c>
-      <c r="J15">
-        <v>286.79761286439515</v>
-      </c>
-      <c r="K15">
-        <v>18.741033110125262</v>
-      </c>
-      <c r="L15">
-        <v>-22.741703197873829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="22" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1.7461618872029692</v>
+      </c>
+      <c r="D16">
+        <v>700.23688049316388</v>
+      </c>
+      <c r="E16">
+        <v>510.93747406005815</v>
+      </c>
+      <c r="F16">
+        <v>14293.129296875</v>
+      </c>
+      <c r="G16">
+        <v>17.094415521621663</v>
+      </c>
+      <c r="H16">
+        <v>505.78021850585873</v>
+      </c>
+      <c r="I16">
+        <v>518.01683654785131</v>
+      </c>
+      <c r="J16">
+        <v>3.9904827475547764</v>
+      </c>
+      <c r="K16">
+        <v>149.97589836120565</v>
+      </c>
+      <c r="L16">
+        <v>31.217847108840893</v>
+      </c>
+      <c r="M16">
+        <v>-16.892590701580012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>1.8674032448193754</v>
+      </c>
+      <c r="D17">
+        <v>283.39214375813771</v>
+      </c>
+      <c r="E17">
+        <v>509.82414652506469</v>
+      </c>
+      <c r="F17">
+        <v>5082.3542073567705</v>
+      </c>
+      <c r="G17">
+        <v>14.378565708796136</v>
+      </c>
+      <c r="H17">
+        <v>506.14300638834595</v>
+      </c>
+      <c r="I17">
+        <v>519.32321166992176</v>
+      </c>
+      <c r="J17">
+        <v>3.6400175333023035</v>
+      </c>
+      <c r="K17">
+        <v>67.470362599690674</v>
+      </c>
+      <c r="L17">
+        <v>27.058964949387722</v>
+      </c>
+      <c r="M17">
+        <v>-8.6758929032545744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B16">
-        <v>1.7461618872029692</v>
-      </c>
-      <c r="C16">
-        <v>700.23688049316388</v>
-      </c>
-      <c r="D16">
-        <v>510.93747406005815</v>
-      </c>
-      <c r="E16">
-        <v>14293.129296875</v>
-      </c>
-      <c r="F16">
-        <v>17.094415521621663</v>
-      </c>
-      <c r="G16">
-        <v>505.78021850585873</v>
-      </c>
-      <c r="H16">
-        <v>518.01683654785131</v>
-      </c>
-      <c r="I16">
-        <v>3.9904827475547764</v>
-      </c>
-      <c r="J16">
-        <v>149.97589836120565</v>
-      </c>
-      <c r="K16">
-        <v>31.217847108840893</v>
-      </c>
-      <c r="L16">
-        <v>-16.892590701580012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17">
-        <v>1.8674032448193754</v>
-      </c>
-      <c r="C17">
-        <v>283.39214375813771</v>
-      </c>
-      <c r="D17">
-        <v>509.82414652506469</v>
-      </c>
-      <c r="E17">
-        <v>5082.3542073567705</v>
-      </c>
-      <c r="F17">
-        <v>14.378565708796136</v>
-      </c>
-      <c r="G17">
-        <v>506.14300638834595</v>
-      </c>
-      <c r="H17">
-        <v>519.32321166992176</v>
-      </c>
-      <c r="I17">
-        <v>3.6400175333023035</v>
-      </c>
-      <c r="J17">
-        <v>67.470362599690674</v>
-      </c>
-      <c r="K17">
-        <v>27.058964949387722</v>
-      </c>
-      <c r="L17">
-        <v>-8.6758929032545744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="23" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1.4628364993977327</v>
+      </c>
+      <c r="D18">
+        <v>602.72823104858332</v>
+      </c>
+      <c r="E18">
+        <v>507.62245635986272</v>
+      </c>
+      <c r="F18">
+        <v>7970.3621826171875</v>
+      </c>
+      <c r="G18">
+        <v>10.742482662200905</v>
+      </c>
+      <c r="H18">
+        <v>505.09624786376889</v>
+      </c>
+      <c r="I18">
+        <v>510.83762359619112</v>
+      </c>
+      <c r="J18">
+        <v>2.7424780488014173</v>
+      </c>
+      <c r="K18">
+        <v>190.82185916900593</v>
+      </c>
+      <c r="L18">
+        <v>23.199133480296361</v>
+      </c>
+      <c r="M18">
+        <v>-19.596616716945825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>1.44372261412098</v>
+      </c>
+      <c r="D19">
+        <v>245.17456654139875</v>
+      </c>
+      <c r="E19">
+        <v>507.45199802943608</v>
+      </c>
+      <c r="F19">
+        <v>3373.2737034388933</v>
+      </c>
+      <c r="G19">
+        <v>9.9048968723841835</v>
+      </c>
+      <c r="H19">
+        <v>505.54826354980429</v>
+      </c>
+      <c r="I19">
+        <v>518.38557434082009</v>
+      </c>
+      <c r="J19">
+        <v>2.2001174156154857</v>
+      </c>
+      <c r="K19">
+        <v>93.618428979601092</v>
+      </c>
+      <c r="L19">
+        <v>22.454659899075782</v>
+      </c>
+      <c r="M19">
+        <v>-7.3216303586959741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B18">
-        <v>1.4628364993977327</v>
-      </c>
-      <c r="C18">
-        <v>602.72823104858332</v>
-      </c>
-      <c r="D18">
-        <v>507.62245635986272</v>
-      </c>
-      <c r="E18">
-        <v>7970.3621826171875</v>
-      </c>
-      <c r="F18">
-        <v>10.742482662200905</v>
-      </c>
-      <c r="G18">
-        <v>505.09624786376889</v>
-      </c>
-      <c r="H18">
-        <v>510.83762359619112</v>
-      </c>
-      <c r="I18">
-        <v>2.7424780488014173</v>
-      </c>
-      <c r="J18">
-        <v>190.82185916900593</v>
-      </c>
-      <c r="K18">
-        <v>23.199133480296361</v>
-      </c>
-      <c r="L18">
-        <v>-19.596616716945825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19">
-        <v>1.44372261412098</v>
-      </c>
-      <c r="C19">
-        <v>245.17456654139875</v>
-      </c>
-      <c r="D19">
-        <v>507.45199802943608</v>
-      </c>
-      <c r="E19">
-        <v>3373.2737034388933</v>
-      </c>
-      <c r="F19">
-        <v>9.9048968723841835</v>
-      </c>
-      <c r="G19">
-        <v>505.54826354980429</v>
-      </c>
-      <c r="H19">
-        <v>518.38557434082009</v>
-      </c>
-      <c r="I19">
-        <v>2.2001174156154857</v>
-      </c>
-      <c r="J19">
-        <v>93.618428979601092</v>
-      </c>
-      <c r="K19">
-        <v>22.454659899075782</v>
-      </c>
-      <c r="L19">
-        <v>-7.3216303586959741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="22" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1.6316952250306007</v>
+      </c>
+      <c r="D20">
+        <v>580.59848263389165</v>
+      </c>
+      <c r="E20">
+        <v>508.14718949167286</v>
+      </c>
+      <c r="F20">
+        <v>5242.9102526212992</v>
+      </c>
+      <c r="G20">
+        <v>7.8479009678489238</v>
+      </c>
+      <c r="H20">
+        <v>505.48540296052562</v>
+      </c>
+      <c r="I20">
+        <v>513.35778326737238</v>
+      </c>
+      <c r="J20">
+        <v>2.508310719540241</v>
+      </c>
+      <c r="K20">
+        <v>218.4516992067033</v>
+      </c>
+      <c r="L20">
+        <v>11.954875569594506</v>
+      </c>
+      <c r="M20">
+        <v>-37.666851595828362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>2.1433674197273072</v>
+      </c>
+      <c r="D21">
+        <v>334.74525858561157</v>
+      </c>
+      <c r="E21">
+        <v>508.47950032552058</v>
+      </c>
+      <c r="F21">
+        <v>2867.8215983072905</v>
+      </c>
+      <c r="G21">
+        <v>7.3141170819600365</v>
+      </c>
+      <c r="H21">
+        <v>506.07496247468123</v>
+      </c>
+      <c r="I21">
+        <v>512.88953755696593</v>
+      </c>
+      <c r="J21">
+        <v>2.7513661026954614</v>
+      </c>
+      <c r="K21">
+        <v>113.82385613123553</v>
+      </c>
+      <c r="L21">
+        <v>9.2384693255791106</v>
+      </c>
+      <c r="M21">
+        <v>-25.01549012844373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B20">
-        <v>1.6316952250306007</v>
-      </c>
-      <c r="C20">
-        <v>580.59848263389165</v>
-      </c>
-      <c r="D20">
-        <v>508.14718949167286</v>
-      </c>
-      <c r="E20">
-        <v>5242.9102526212992</v>
-      </c>
-      <c r="F20">
-        <v>7.8479009678489238</v>
-      </c>
-      <c r="G20">
-        <v>505.48540296052562</v>
-      </c>
-      <c r="H20">
-        <v>513.35778326737238</v>
-      </c>
-      <c r="I20">
-        <v>2.508310719540241</v>
-      </c>
-      <c r="J20">
-        <v>218.4516992067033</v>
-      </c>
-      <c r="K20">
-        <v>11.954875569594506</v>
-      </c>
-      <c r="L20">
-        <v>-37.666851595828362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21">
-        <v>2.1433674197273072</v>
-      </c>
-      <c r="C21">
-        <v>334.74525858561157</v>
-      </c>
-      <c r="D21">
-        <v>508.47950032552058</v>
-      </c>
-      <c r="E21">
-        <v>2867.8215983072905</v>
-      </c>
-      <c r="F21">
-        <v>7.3141170819600365</v>
-      </c>
-      <c r="G21">
-        <v>506.07496247468123</v>
-      </c>
-      <c r="H21">
-        <v>512.88953755696593</v>
-      </c>
-      <c r="I21">
-        <v>2.7513661026954614</v>
-      </c>
-      <c r="J21">
-        <v>113.82385613123553</v>
-      </c>
-      <c r="K21">
-        <v>9.2384693255791106</v>
-      </c>
-      <c r="L21">
-        <v>-25.01549012844373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
         <v>0.85892328422146103</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>127.41179151534978</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>506.55904846191396</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1310.6722869873024</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>7.6530651569366395</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>505.01636962890569</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>509.55954132080041</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.6013809233903848</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>66.006226921081492</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>19.245134102670733</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-4.9394996668163058</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="B23">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
         <v>0.7542580182554689</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>78.535148111978884</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>507.74060974121079</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>858.50348176956061</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8.2353563706080024</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>505.85011596679658</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>511.5382415771482</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.8355278710524205</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>41.311202445626208</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>18.940491548606278</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-2.9591244448508505</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
     </row>
   </sheetData>
